--- a/data/stores.xlsx
+++ b/data/stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\GitHub\Marketing-e-Pricing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EF204E-AD8A-443C-814D-8E4A1CF3AD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4A68F3-4A94-4858-83BC-065B4D2433BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -2329,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
